--- a/Lecture_11/data/hierarchy_by_hand.xlsx
+++ b/Lecture_11/data/hierarchy_by_hand.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nsvrzikapa/Documents/Teaching/CSCI-E29/Lecture_11/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEAD0E6-D5A0-0541-8140-3C3F3CB9F188}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E927194-E56A-7D4B-86C8-978C386E5CC4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="2240" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{6EACD851-2BB2-9E44-A8EC-8C77F59DAD63}"/>
+    <workbookView xWindow="5560" yWindow="2240" windowWidth="28040" windowHeight="17440" xr2:uid="{6EACD851-2BB2-9E44-A8EC-8C77F59DAD63}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -2518,8 +2518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90ECEC6-B113-2E49-9C32-5B478F54785F}">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2838,7 +2838,7 @@
         <v>2.8</v>
       </c>
       <c r="E29" s="3">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -3379,7 +3379,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
